--- a/data/trans_dic/P14B23-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,18</t>
+          <t>3,4; 6,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,84</t>
+          <t>2,28; 4,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,26</t>
+          <t>5,93; 10,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 16,09</t>
+          <t>12,13; 16,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 15,31</t>
+          <t>10,95; 15,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,19</t>
+          <t>11,57; 15,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,35</t>
+          <t>8,78; 11,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,33</t>
+          <t>7,61; 10,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,73; 12,62</t>
+          <t>9,77; 12,73</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,67</t>
+          <t>1,37; 2,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,46</t>
+          <t>1,28; 2,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,85</t>
+          <t>1,9; 3,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,26</t>
+          <t>4,03; 6,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,09</t>
+          <t>3,98; 6,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,57</t>
+          <t>4,47; 7,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,12</t>
+          <t>2,8; 4,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,07</t>
+          <t>2,76; 4,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,39</t>
+          <t>3,57; 5,29</t>
         </is>
       </c>
     </row>
@@ -905,32 +906,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,46</t>
+          <t>0,16; 1,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,06</t>
+          <t>1,83; 5,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,73</t>
+          <t>0,8; 3,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,93</t>
+          <t>0,72; 3,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,49</t>
+          <t>2,91; 5,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,12 +941,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,88</t>
+          <t>0,54; 1,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 4,58</t>
+          <t>2,69; 4,76</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,08</t>
+          <t>1,96; 3,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,49</t>
+          <t>1,54; 2,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,42</t>
+          <t>2,81; 4,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,16; 9,07</t>
+          <t>7,17; 9,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 7,66</t>
+          <t>5,85; 7,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,21</t>
+          <t>5,89; 8,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 5,83</t>
+          <t>4,71; 5,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 4,97</t>
+          <t>3,87; 4,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,2</t>
+          <t>4,75; 6,15</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44634</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25621</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40776</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>186621</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>130122</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>100390</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>231255</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>155743</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>141167</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>33053; 60867</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17189; 36260</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30526; 54684</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>161312; 215002</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>108910; 152468</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>87431; 116050</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>202262; 261171</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>133056; 183214</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>124078; 161709</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37635</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38382</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65215</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>88728</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>99014</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>141036</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>126364</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>137396</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>206251</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26830; 53452</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26620; 52545</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43582; 86035</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>70671; 108166</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>79121; 120282</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>99950; 169830</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>104191; 150953</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>112122; 162839</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>161817; 239666</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2889</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19811</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8536</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8781</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26414</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11424</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11669</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46226</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9742</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>883; 7874</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11805; 32599</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3660; 18149</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3963; 16854</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19210; 37217</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5581; 22379</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5889; 19968</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35099; 62179</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>85158</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>66891</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>125802</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>283885</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>237917</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>267841</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>369043</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>304808</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>393643</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66926; 107593</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>51867; 84710</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>96838; 154912</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>253981; 323136</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>206528; 268610</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>215124; 299743</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>327757; 407477</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>267417; 340988</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>337457; 436691</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>